--- a/assessment/assessment (foodiehub).xlsx
+++ b/assessment/assessment (foodiehub).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7dd620d9e945120/Desktop/tops/assessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B5F5D1BA-BFC0-4679-9FC1-DC1D39E3AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22B48860-C231-4546-AF1E-A49A070623FC}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{B5F5D1BA-BFC0-4679-9FC1-DC1D39E3AA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD368E2-EE83-4811-AEF3-3D9F1C3D2D25}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{870AD79D-4F36-44D2-9062-166561E01D42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{870AD79D-4F36-44D2-9062-166561E01D42}"/>
   </bookViews>
   <sheets>
     <sheet name="login&amp;registeration page" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="436">
   <si>
     <t>test case id</t>
   </si>
@@ -1423,7 +1423,16 @@
     <t>https://prnt.sc/CrOUWZ11iIvJ</t>
   </si>
   <si>
-    <t xml:space="preserve">enter </t>
+    <t>https://prnt.sc/BdmXaSSimkpH</t>
+  </si>
+  <si>
+    <t>click on continue</t>
+  </si>
+  <si>
+    <t>if click on checkout button than its not oppening the payment method page</t>
+  </si>
+  <si>
+    <t>defect id</t>
   </si>
 </sst>
 </file>
@@ -3719,7 +3728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4487A3-253F-43A6-B4D0-10EC993E7065}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -5662,9 +5671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE40CB-3513-407D-B088-C89984BE4C70}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5680,7 +5687,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
+      <c r="A1" s="14" t="s">
+        <v>435</v>
+      </c>
       <c r="B1" s="14" t="s">
         <v>382</v>
       </c>
@@ -6094,15 +6103,18 @@
         <v>431</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>434</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>416</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>18</v>
@@ -6116,11 +6128,12 @@
       <c r="H14" s="4" t="s">
         <v>392</v>
       </c>
+      <c r="I14" s="16" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
+      <c r="A15" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6138,6 +6151,7 @@
     <hyperlink ref="I12" r:id="rId12" xr:uid="{E2FFAB64-6FB5-431E-957A-B0E055286062}"/>
     <hyperlink ref="E12" r:id="rId13" xr:uid="{2E7B6013-7F0C-4112-A891-8840997A3894}"/>
     <hyperlink ref="I13" r:id="rId14" xr:uid="{C964D722-1BC4-4F7C-ACF5-D65F449E4D75}"/>
+    <hyperlink ref="I14" r:id="rId15" xr:uid="{C77EC9A0-0C8D-4C96-BF67-39403B08AA54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
